--- a/صيدليات دكتور مصطفي طلعت_2026-01-11_20-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-11_20-22.xlsx
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>OROVEX PEPPERMINT MOUTH WASH 250 ML</t>
   </si>
   <si>
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
@@ -2264,17 +2261,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2282,7 +2279,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2290,17 +2287,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2316,17 +2313,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>20</v>
+        <v>136.16</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2342,17 +2339,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>136.16</v>
+        <v>82</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2368,13 +2365,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2386,7 +2383,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2394,17 +2391,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2420,17 +2417,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2446,17 +2443,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2472,17 +2469,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2498,17 +2495,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2524,13 +2521,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2550,17 +2547,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2568,7 +2565,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2576,17 +2573,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>75</v>
+        <v>30.07</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2594,7 +2591,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2602,17 +2599,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>30.07</v>
+        <v>18</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2628,17 +2625,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2646,7 +2643,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2654,17 +2651,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2672,7 +2669,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2680,17 +2677,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>34</v>
+        <v>2.5</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2698,7 +2695,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2706,17 +2703,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>2.5</v>
+        <v>37</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2732,17 +2729,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2758,17 +2755,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2784,13 +2781,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2810,17 +2807,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2828,7 +2825,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2836,17 +2833,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>12</v>
+        <v>57.600000000000001</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>52</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2854,7 +2851,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2862,17 +2859,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>57.600000000000001</v>
+        <v>3.98</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>108</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2888,17 +2885,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>3.98</v>
+        <v>40</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2914,17 +2911,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2940,17 +2937,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2958,7 +2955,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2966,13 +2963,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -2992,13 +2989,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>15</v>
+        <v>69.299999999999997</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3024,7 +3021,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>69.299999999999997</v>
+        <v>44.549999999999997</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3044,13 +3041,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>44.549999999999997</v>
+        <v>30</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3070,13 +3067,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3096,13 +3093,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3122,13 +3119,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3136,63 +3133,37 @@
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
-      <c r="A88" s="6">
-        <v>85</v>
-      </c>
-      <c t="s" r="B88" s="7">
+      <c r="K88" s="10">
+        <v>5880.2200000000003</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+    </row>
+    <row r="89" ht="17.25" customHeight="1">
+      <c t="s" r="A89" s="11">
         <v>120</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c t="s" r="H88" s="8">
-        <v>90</v>
-      </c>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9">
-        <v>30</v>
-      </c>
-      <c r="M88" s="9"/>
-      <c t="s" r="N88" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" ht="25.5" customHeight="1">
-      <c r="K89" s="10">
-        <v>5965.2200000000003</v>
-      </c>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="11">
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c t="s" r="F89" s="12">
         <v>121</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c t="s" r="F90" s="12">
+      <c r="G89" s="12"/>
+      <c r="H89" s="13"/>
+      <c t="s" r="I89" s="14">
         <v>122</v>
       </c>
-      <c r="G90" s="12"/>
-      <c r="H90" s="13"/>
-      <c t="s" r="I90" s="14">
-        <v>123</v>
-      </c>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="266">
+  <mergeCells count="263">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3452,13 +3423,10 @@
     <mergeCell ref="B87:G87"/>
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="A90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="I90:N90"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="I89:N89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
